--- a/tests/testthat/fixtures/ex3/tables/dif_poly_TR.xlsx
+++ b/tests/testthat/fixtures/ex3/tables/dif_poly_TR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t xml:space="preserve">DIF.variable</t>
   </si>
@@ -78,397 +78,406 @@
     <t xml:space="preserve">reg70001_c</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.001 ( 0.001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.028 (-0.024)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.202 ( 0.173)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.231 ( 0.198)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.085 (-0.071)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.123 (-0.103)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.038 (-0.032)</t>
+    <t xml:space="preserve">-0.035 (-0.029)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.054 (-0.046)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.007 ( 0.006)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.061 ( 0.052)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.110 (-0.090)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.146 (-0.119)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.036 (-0.029)</t>
   </si>
   <si>
     <t xml:space="preserve">reg70002_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.258 (-0.214)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.188 ( 0.161)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.004 (-0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.192 (-0.164)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.030 ( 0.025)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.004 ( 0.003)</t>
+    <t xml:space="preserve">-0.280 (-0.231)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.229 ( 0.194)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.028 ( 0.024)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.201 (-0.170)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.076 ( 0.062)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.016 ( 0.013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.060 (-0.049)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reg70003_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.038 (-0.031)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.086 ( 0.073)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.144 ( 0.122)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.058 ( 0.049)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.026 (-0.021)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.028 ( 0.023)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.054 ( 0.044)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reg70004_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.109 (-0.090)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.265 ( 0.224)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.164 ( 0.139)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.101 (-0.086)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.179 (-0.146)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.092 (-0.075)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.087 ( 0.071)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reg70005_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.077 (-0.064)</t>
   </si>
   <si>
     <t xml:space="preserve">-0.027 (-0.023)</t>
   </si>
   <si>
-    <t xml:space="preserve">reg70003_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.096 (-0.080)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.076 ( 0.065)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.121 (-0.103)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.198 (-0.169)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.104 (-0.087)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.006 ( 0.005)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.110 ( 0.092)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reg70004_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.084 (-0.070)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.295 ( 0.252)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.071 ( 0.061)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.224 (-0.192)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.168 (-0.140)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.090 (-0.075)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.078 ( 0.065)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reg70005_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.290 (-0.240)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.175 (-0.150)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.089 ( 0.076)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.264 ( 0.226)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.326 (-0.272)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.202 (-0.169)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.123 ( 0.103)</t>
+    <t xml:space="preserve">-0.211 (-0.179)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.184 (-0.156)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.240 (-0.195)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.195 (-0.159)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.045 ( 0.037)</t>
   </si>
   <si>
     <t xml:space="preserve">reg70006_c</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.090 ( 0.075)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.236 ( 0.202)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.554 ( 0.474)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.318 ( 0.272)</t>
+    <t xml:space="preserve"> 0.142 ( 0.117)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.108 ( 0.091)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.273 (-0.231)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.380 (-0.322)</t>
   </si>
   <si>
     <t xml:space="preserve">reg70007_c</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.052 ( 0.043)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.253 (-0.216)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.303 (-0.259)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.050 (-0.043)</t>
+    <t xml:space="preserve"> 0.056 ( 0.046)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.284 (-0.240)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.352 (-0.298)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.067 (-0.057)</t>
   </si>
   <si>
     <t xml:space="preserve">reg70008_c</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.027 ( 0.022)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.061 (-0.052)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.315 (-0.269)</t>
+    <t xml:space="preserve"> 0.037 ( 0.031)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.081 (-0.069)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.453 ( 0.384)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.534 ( 0.452)</t>
   </si>
   <si>
     <t xml:space="preserve">reg70009_c</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.187 ( 0.155)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.126 ( 0.108)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.072 (-0.062)</t>
+    <t xml:space="preserve"> 0.216 ( 0.178)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.058 (-0.049)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.042 (-0.036)</t>
   </si>
   <si>
     <t xml:space="preserve">reg70010_c</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.012 ( 0.010)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.062 ( 0.053)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.244 (-0.209)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.307 (-0.263)</t>
+    <t xml:space="preserve"> 0.000 ( 0.000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.151 ( 0.128)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.003 (-0.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.154 (-0.130)</t>
   </si>
   <si>
     <t xml:space="preserve">reg70011_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.162 (-0.134)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.015 (-0.013)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.284 (-0.243)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.269 (-0.230)</t>
+    <t xml:space="preserve">-0.187 (-0.154)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.010 (-0.008)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.592 ( 0.501)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.602 ( 0.510)</t>
   </si>
   <si>
     <t xml:space="preserve">reg70012_c</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.067 ( 0.057)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.104 (-0.089)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.171 (-0.146)</t>
+    <t xml:space="preserve">-0.062 (-0.051)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.056 (-0.047)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.317 ( 0.268)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.373 ( 0.316)</t>
   </si>
   <si>
     <t xml:space="preserve">reg70013_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.203 (-0.168)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.354 (-0.303)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.184 (-0.157)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.170 ( 0.145)</t>
+    <t xml:space="preserve">-0.210 (-0.173)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.225 (-0.191)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.475 (-0.402)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.250 (-0.212)</t>
   </si>
   <si>
     <t xml:space="preserve">reg70014_c</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.075 ( 0.062)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.043 (-0.037)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.051 (-0.044)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.008 (-0.007)</t>
+    <t xml:space="preserve"> 0.111 ( 0.092)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.231 ( 0.196)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.569 ( 0.482)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.339 ( 0.287)</t>
   </si>
   <si>
     <t xml:space="preserve">reg70015_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.193 (-0.160)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.376 (-0.322)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.067 (-0.057)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.309 ( 0.264)</t>
+    <t xml:space="preserve">-0.190 (-0.157)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.190 (-0.161)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.139 ( 0.118)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.329 ( 0.279)</t>
   </si>
   <si>
     <t xml:space="preserve">reg70016_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.068 (-0.056)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.476 ( 0.407)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.248 ( 0.212)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.228 (-0.195)</t>
+    <t xml:space="preserve">-0.055 (-0.045)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.397 ( 0.336)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.450 ( 0.381)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.052 ( 0.044)</t>
   </si>
   <si>
     <t xml:space="preserve">reg70017_c</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.257 ( 0.213)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.338 (-0.289)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.063 ( 0.054)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.400 ( 0.342)</t>
+    <t xml:space="preserve"> 0.251 ( 0.207)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.351 (-0.297)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.698 (-0.591)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.347 (-0.294)</t>
   </si>
   <si>
     <t xml:space="preserve">reg70018_c</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.314 ( 0.260)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.288 ( 0.246)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.595 ( 0.509)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.307 ( 0.263)</t>
+    <t xml:space="preserve"> 0.285 ( 0.235)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.158 ( 0.134)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.194 ( 0.164)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.036 ( 0.030)</t>
   </si>
   <si>
     <t xml:space="preserve">reg70019_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.177 (-0.147)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.059 (-0.050)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.295 (-0.252)</t>
+    <t xml:space="preserve">-0.191 (-0.158)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.236 ( 0.200)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.064 (-0.054)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.301 (-0.255)</t>
   </si>
   <si>
     <t xml:space="preserve">reg70020_c</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.483 ( 0.400)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.045 ( 0.038)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.093 ( 0.080)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.048 ( 0.041)</t>
+    <t xml:space="preserve"> 0.385 ( 0.318)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.026 (-0.022)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.158 (-0.134)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.133 (-0.113)</t>
   </si>
   <si>
     <t xml:space="preserve">reg70021_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.020 (-0.017)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.453 ( 0.387)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.106 ( 0.091)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.347 (-0.297)</t>
+    <t xml:space="preserve"> 0.047 ( 0.039)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.501 ( 0.424)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.724 ( 0.613)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.223 ( 0.189)</t>
   </si>
   <si>
     <t xml:space="preserve">Main effect (DIF model)</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.379 (-0.314)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.726 (0.621)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179 (0.153)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.547 (-0.468)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.431 (-0.360)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.865 (-0.722)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.434 (-0.362)</t>
+    <t xml:space="preserve">-0.384 (-0.317)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.688 (0.582)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.295 (0.250)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.392 (-0.332)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.403 (-0.328)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.850 (-0.693)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.448 (-0.365)</t>
   </si>
   <si>
     <t xml:space="preserve">Main effect (Main effect model)</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.282 (-0.234)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.526 (0.450)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164 (0.140)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.362 (-0.310)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.352 (-0.295)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.824 (-0.689)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.472 (-0.395)</t>
+    <t xml:space="preserve">-0.276 (-0.228)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.490 (0.415)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.214 (0.181)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.276 (-0.234)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.333 (-0.271)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.814 (-0.664)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.481 (-0.392)</t>
   </si>
 </sst>
 </file>
@@ -834,16 +843,16 @@
         <v>2100</v>
       </c>
       <c r="D2" t="n">
-        <v>24293</v>
+        <v>24451</v>
       </c>
       <c r="E2" t="n">
         <v>32</v>
       </c>
       <c r="F2" t="n">
-        <v>24357</v>
+        <v>24515</v>
       </c>
       <c r="G2" t="n">
-        <v>24538</v>
+        <v>24696</v>
       </c>
     </row>
     <row r="3">
@@ -857,16 +866,16 @@
         <v>2100</v>
       </c>
       <c r="D3" t="n">
-        <v>24266</v>
+        <v>24427</v>
       </c>
       <c r="E3" t="n">
         <v>52</v>
       </c>
       <c r="F3" t="n">
-        <v>24370</v>
+        <v>24531</v>
       </c>
       <c r="G3" t="n">
-        <v>24664</v>
+        <v>24825</v>
       </c>
     </row>
     <row r="4">
@@ -880,16 +889,16 @@
         <v>2100</v>
       </c>
       <c r="D4" t="n">
-        <v>24219</v>
+        <v>24393</v>
       </c>
       <c r="E4" t="n">
         <v>33</v>
       </c>
       <c r="F4" t="n">
-        <v>24285</v>
+        <v>24459</v>
       </c>
       <c r="G4" t="n">
-        <v>24472</v>
+        <v>24645</v>
       </c>
     </row>
     <row r="5">
@@ -903,16 +912,16 @@
         <v>2100</v>
       </c>
       <c r="D5" t="n">
-        <v>24157</v>
+        <v>24323</v>
       </c>
       <c r="E5" t="n">
         <v>73</v>
       </c>
       <c r="F5" t="n">
-        <v>24303</v>
+        <v>24469</v>
       </c>
       <c r="G5" t="n">
-        <v>24715</v>
+        <v>24882</v>
       </c>
     </row>
     <row r="6">
@@ -926,16 +935,16 @@
         <v>2100</v>
       </c>
       <c r="D6" t="n">
-        <v>11409</v>
+        <v>11521</v>
       </c>
       <c r="E6" t="n">
         <v>11</v>
       </c>
       <c r="F6" t="n">
-        <v>11431</v>
+        <v>11543</v>
       </c>
       <c r="G6" t="n">
-        <v>11493</v>
+        <v>11605</v>
       </c>
     </row>
     <row r="7">
@@ -949,16 +958,16 @@
         <v>2100</v>
       </c>
       <c r="D7" t="n">
-        <v>11402</v>
+        <v>11513</v>
       </c>
       <c r="E7" t="n">
         <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>11440</v>
+        <v>11551</v>
       </c>
       <c r="G7" t="n">
-        <v>11547</v>
+        <v>11658</v>
       </c>
     </row>
   </sheetData>
@@ -1185,7 +1194,7 @@
         <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
@@ -1193,19 +1202,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
@@ -1213,19 +1222,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
@@ -1233,19 +1242,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
@@ -1253,19 +1262,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
@@ -1273,19 +1282,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
@@ -1293,19 +1302,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
@@ -1313,19 +1322,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
@@ -1333,19 +1342,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
@@ -1353,19 +1362,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
@@ -1373,19 +1382,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F19"/>
       <c r="G19"/>
@@ -1393,19 +1402,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
@@ -1413,19 +1422,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
@@ -1433,19 +1442,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
@@ -1453,54 +1462,54 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E23" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F23" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G23" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H23" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C24" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D24" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E24" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F24" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G24" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H24" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
